--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Arf1-Pld2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Arf1-Pld2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>68.392882</v>
+        <v>20.598495</v>
       </c>
       <c r="H2">
-        <v>205.178646</v>
+        <v>61.795485</v>
       </c>
       <c r="I2">
-        <v>0.3817002623156464</v>
+        <v>0.187290770808477</v>
       </c>
       <c r="J2">
-        <v>0.3817002623156464</v>
+        <v>0.187290770808477</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.437867666666667</v>
+        <v>4.265285666666666</v>
       </c>
       <c r="N2">
-        <v>19.313603</v>
+        <v>12.795857</v>
       </c>
       <c r="O2">
-        <v>0.4097687230856996</v>
+        <v>0.3060251613083444</v>
       </c>
       <c r="P2">
-        <v>0.4097687230856996</v>
+        <v>0.3060251613083444</v>
       </c>
       <c r="Q2">
-        <v>440.3043236579487</v>
+        <v>87.85846547840499</v>
       </c>
       <c r="R2">
-        <v>3962.738912921538</v>
+        <v>790.726189305645</v>
       </c>
       <c r="S2">
-        <v>0.156408829090559</v>
+        <v>0.05731568834822835</v>
       </c>
       <c r="T2">
-        <v>0.156408829090559</v>
+        <v>0.05731568834822835</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>68.392882</v>
+        <v>20.598495</v>
       </c>
       <c r="H3">
-        <v>205.178646</v>
+        <v>61.795485</v>
       </c>
       <c r="I3">
-        <v>0.3817002623156464</v>
+        <v>0.187290770808477</v>
       </c>
       <c r="J3">
-        <v>0.3817002623156464</v>
+        <v>0.187290770808477</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.486823</v>
       </c>
       <c r="O3">
-        <v>0.4558770325701756</v>
+        <v>0.5138779274087578</v>
       </c>
       <c r="P3">
-        <v>0.4558770325701756</v>
+        <v>0.5138779274087578</v>
       </c>
       <c r="Q3">
-        <v>489.8485833312953</v>
+        <v>147.532072043795</v>
       </c>
       <c r="R3">
-        <v>4408.637249981658</v>
+        <v>1327.788648394155</v>
       </c>
       <c r="S3">
-        <v>0.1740083829157145</v>
+        <v>0.09624459312584886</v>
       </c>
       <c r="T3">
-        <v>0.1740083829157145</v>
+        <v>0.09624459312584886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>68.392882</v>
+        <v>20.598495</v>
       </c>
       <c r="H4">
-        <v>205.178646</v>
+        <v>61.795485</v>
       </c>
       <c r="I4">
-        <v>0.3817002623156464</v>
+        <v>0.187290770808477</v>
       </c>
       <c r="J4">
-        <v>0.3817002623156464</v>
+        <v>0.187290770808477</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.110836666666667</v>
+        <v>2.510136</v>
       </c>
       <c r="N4">
-        <v>6.33251</v>
+        <v>7.530408</v>
       </c>
       <c r="O4">
-        <v>0.1343542443441249</v>
+        <v>0.1800969112828978</v>
       </c>
       <c r="P4">
-        <v>0.1343542443441249</v>
+        <v>0.1800969112828978</v>
       </c>
       <c r="Q4">
-        <v>144.3662030646067</v>
+        <v>51.70502384531999</v>
       </c>
       <c r="R4">
-        <v>1299.29582758146</v>
+        <v>465.3452146078799</v>
       </c>
       <c r="S4">
-        <v>0.05128305030937291</v>
+        <v>0.03373048933439984</v>
       </c>
       <c r="T4">
-        <v>0.05128305030937292</v>
+        <v>0.03373048933439984</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>60.20577233333333</v>
+        <v>60.20577233333334</v>
       </c>
       <c r="H5">
         <v>180.617317</v>
       </c>
       <c r="I5">
-        <v>0.3360080526004068</v>
+        <v>0.5474179306512287</v>
       </c>
       <c r="J5">
-        <v>0.3360080526004068</v>
+        <v>0.5474179306512288</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.437867666666667</v>
+        <v>4.265285666666666</v>
       </c>
       <c r="N5">
-        <v>19.313603</v>
+        <v>12.795857</v>
       </c>
       <c r="O5">
-        <v>0.4097687230856996</v>
+        <v>0.3060251613083444</v>
       </c>
       <c r="P5">
-        <v>0.4097687230856996</v>
+        <v>0.3060251613083444</v>
       </c>
       <c r="Q5">
-        <v>387.5967950514612</v>
+        <v>256.7948177839632</v>
       </c>
       <c r="R5">
-        <v>3488.371155463151</v>
+        <v>2311.153360055669</v>
       </c>
       <c r="S5">
-        <v>0.1376855906605813</v>
+        <v>0.1675236605306223</v>
       </c>
       <c r="T5">
-        <v>0.1376855906605813</v>
+        <v>0.1675236605306224</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>60.20577233333333</v>
+        <v>60.20577233333334</v>
       </c>
       <c r="H6">
         <v>180.617317</v>
       </c>
       <c r="I6">
-        <v>0.3360080526004068</v>
+        <v>0.5474179306512287</v>
       </c>
       <c r="J6">
-        <v>0.3360080526004068</v>
+        <v>0.5474179306512288</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>21.486823</v>
       </c>
       <c r="O6">
-        <v>0.4558770325701756</v>
+        <v>0.5138779274087578</v>
       </c>
       <c r="P6">
-        <v>0.4558770325701756</v>
+        <v>0.5138779274087578</v>
       </c>
       <c r="Q6">
-        <v>431.2102579015434</v>
+        <v>431.2102579015435</v>
       </c>
       <c r="R6">
         <v>3880.892321113891</v>
       </c>
       <c r="S6">
-        <v>0.1531783539391569</v>
+        <v>0.2813059916294445</v>
       </c>
       <c r="T6">
-        <v>0.1531783539391569</v>
+        <v>0.2813059916294446</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.20577233333333</v>
+        <v>60.20577233333334</v>
       </c>
       <c r="H7">
         <v>180.617317</v>
       </c>
       <c r="I7">
-        <v>0.3360080526004068</v>
+        <v>0.5474179306512287</v>
       </c>
       <c r="J7">
-        <v>0.3360080526004068</v>
+        <v>0.5474179306512288</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.110836666666667</v>
+        <v>2.510136</v>
       </c>
       <c r="N7">
-        <v>6.33251</v>
+        <v>7.530408</v>
       </c>
       <c r="O7">
-        <v>0.1343542443441249</v>
+        <v>0.1800969112828978</v>
       </c>
       <c r="P7">
-        <v>0.1343542443441249</v>
+        <v>0.1800969112828978</v>
       </c>
       <c r="Q7">
-        <v>127.0845517861855</v>
+        <v>151.124676541704</v>
       </c>
       <c r="R7">
-        <v>1143.76096607567</v>
+        <v>1360.122088875336</v>
       </c>
       <c r="S7">
-        <v>0.04514410800066863</v>
+        <v>0.09858827849116183</v>
       </c>
       <c r="T7">
-        <v>0.04514410800066863</v>
+        <v>0.09858827849116186</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.58089766666667</v>
+        <v>29.17709966666666</v>
       </c>
       <c r="H8">
-        <v>151.742693</v>
+        <v>87.53129899999999</v>
       </c>
       <c r="I8">
-        <v>0.2822916850839468</v>
+        <v>0.2652912985402942</v>
       </c>
       <c r="J8">
-        <v>0.2822916850839468</v>
+        <v>0.2652912985402942</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.437867666666667</v>
+        <v>4.265285666666666</v>
       </c>
       <c r="N8">
-        <v>19.313603</v>
+        <v>12.795857</v>
       </c>
       <c r="O8">
-        <v>0.4097687230856996</v>
+        <v>0.3060251613083444</v>
       </c>
       <c r="P8">
-        <v>0.4097687230856996</v>
+        <v>0.3060251613083444</v>
       </c>
       <c r="Q8">
-        <v>325.6331256392087</v>
+        <v>124.4486650031381</v>
       </c>
       <c r="R8">
-        <v>2930.698130752879</v>
+        <v>1120.037985028243</v>
       </c>
       <c r="S8">
-        <v>0.1156743033345593</v>
+        <v>0.08118581242949369</v>
       </c>
       <c r="T8">
-        <v>0.1156743033345593</v>
+        <v>0.08118581242949369</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.58089766666667</v>
+        <v>29.17709966666666</v>
       </c>
       <c r="H9">
-        <v>151.742693</v>
+        <v>87.53129899999999</v>
       </c>
       <c r="I9">
-        <v>0.2822916850839468</v>
+        <v>0.2652912985402942</v>
       </c>
       <c r="J9">
-        <v>0.2822916850839468</v>
+        <v>0.2652912985402942</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>21.486823</v>
       </c>
       <c r="O9">
-        <v>0.4558770325701756</v>
+        <v>0.5138779274087578</v>
       </c>
       <c r="P9">
-        <v>0.4558770325701756</v>
+        <v>0.5138779274087578</v>
       </c>
       <c r="Q9">
-        <v>362.2742651149265</v>
+        <v>208.9743920636752</v>
       </c>
       <c r="R9">
-        <v>3260.468386034339</v>
+        <v>1880.769528573077</v>
       </c>
       <c r="S9">
-        <v>0.1286902957153041</v>
+        <v>0.1363273426534644</v>
       </c>
       <c r="T9">
-        <v>0.1286902957153042</v>
+        <v>0.1363273426534644</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.58089766666667</v>
+        <v>29.17709966666666</v>
       </c>
       <c r="H10">
-        <v>151.742693</v>
+        <v>87.53129899999999</v>
       </c>
       <c r="I10">
-        <v>0.2822916850839468</v>
+        <v>0.2652912985402942</v>
       </c>
       <c r="J10">
-        <v>0.2822916850839468</v>
+        <v>0.2652912985402942</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.110836666666667</v>
+        <v>2.510136</v>
       </c>
       <c r="N10">
-        <v>6.33251</v>
+        <v>7.530408</v>
       </c>
       <c r="O10">
-        <v>0.1343542443441249</v>
+        <v>0.1800969112828978</v>
       </c>
       <c r="P10">
-        <v>0.1343542443441249</v>
+        <v>0.1800969112828978</v>
       </c>
       <c r="Q10">
-        <v>106.7680134277144</v>
+        <v>73.23848824888799</v>
       </c>
       <c r="R10">
-        <v>960.91212084943</v>
+        <v>659.1463942399919</v>
       </c>
       <c r="S10">
-        <v>0.03792708603408333</v>
+        <v>0.04777814345733612</v>
       </c>
       <c r="T10">
-        <v>0.03792708603408334</v>
+        <v>0.04777814345733612</v>
       </c>
     </row>
   </sheetData>
